--- a/lesprof.xlsx
+++ b/lesprof.xlsx
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>8048</v>
+        <v>7554</v>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>1541</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2805</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1357</v>
+        <v>1323</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1485</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="6">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4140</v>
+        <v>4219</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>715</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1985</v>
+        <v>1962</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1758</v>
+        <v>1738</v>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2033</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>910</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2554</v>
+        <v>2499</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
